--- a/Assignment5/RF Calculations.xlsx
+++ b/Assignment5/RF Calculations.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8265"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="3rd model" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Input</t>
   </si>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <f>D2*C2</f>
+        <f t="shared" ref="H2:H7" si="0">D2*C2</f>
         <v>1</v>
       </c>
     </row>
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f>H2</f>
+        <f t="shared" ref="D3:D8" si="1">H2</f>
         <v>1</v>
       </c>
       <c r="E3">
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <f>D3*C3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <f>H3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E4" s="2">
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="2">
-        <f>D4*C4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I4" s="2"/>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <f>H4</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E5">
@@ -551,7 +551,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="2">
-        <f>D5*C5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -567,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <f>H5</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E6" s="2">
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="2">
-        <f>D6*C6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I6" s="2"/>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <f>H6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E7">
@@ -617,13 +617,13 @@
         <v>20</v>
       </c>
       <c r="H7" s="2">
-        <f>D7*C7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
-        <f>H7</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -635,13 +635,357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>(F2+B2-1)*D2</f>
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H15" si="0">D2*C2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A15" si="1">INT(((A2+2*E2-B2)/C2)+1)</f>
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D15" si="2">H2</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>G2</f>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="3">F3+(B3-1)*D3</f>
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>G3</f>
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <f>H4</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f>G3</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f>G5</f>
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f>G6</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <f>G7</f>
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <f>G8</f>
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <f>G9</f>
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
